--- a/modelos/OBASPA4451023/OBASPA4451023_Sell in_metricas.xlsx
+++ b/modelos/OBASPA4451023/OBASPA4451023_Sell in_metricas.xlsx
@@ -473,182 +473,182 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44663</v>
+        <v>44656</v>
       </c>
       <c r="B2" t="n">
-        <v>202.8926276548443</v>
+        <v>142.3728285614815</v>
       </c>
       <c r="C2" t="n">
-        <v>121.3776429444548</v>
+        <v>62.42342341209474</v>
       </c>
       <c r="D2" t="n">
-        <v>277.2516775132285</v>
+        <v>226.2774573064371</v>
       </c>
       <c r="E2" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44656</v>
+        <v>44649</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44670</v>
+        <v>44663</v>
       </c>
       <c r="B3" t="n">
-        <v>214.6855867320779</v>
+        <v>202.8925032288139</v>
       </c>
       <c r="C3" t="n">
-        <v>132.7993490297129</v>
+        <v>118.1990479979557</v>
       </c>
       <c r="D3" t="n">
-        <v>297.395181242537</v>
+        <v>275.7932600876704</v>
       </c>
       <c r="E3" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44663</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44677</v>
+        <v>44670</v>
       </c>
       <c r="B4" t="n">
-        <v>175.4936323581432</v>
+        <v>214.6856014138463</v>
       </c>
       <c r="C4" t="n">
-        <v>98.32869941096399</v>
+        <v>130.9943381845839</v>
       </c>
       <c r="D4" t="n">
-        <v>257.0229976793078</v>
+        <v>301.8312826853604</v>
       </c>
       <c r="E4" t="n">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44670</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44684</v>
+        <v>44677</v>
       </c>
       <c r="B5" t="n">
-        <v>82.25476847367297</v>
+        <v>175.4943104201548</v>
       </c>
       <c r="C5" t="n">
-        <v>1.830846991671349</v>
+        <v>95.77992210901493</v>
       </c>
       <c r="D5" t="n">
-        <v>166.3620129964771</v>
+        <v>255.1234374296462</v>
       </c>
       <c r="E5" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44677</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44691</v>
+        <v>44684</v>
       </c>
       <c r="B6" t="n">
-        <v>46.75948016242613</v>
+        <v>82.25721272216576</v>
       </c>
       <c r="C6" t="n">
-        <v>-28.78405958542852</v>
+        <v>1.405723879248681</v>
       </c>
       <c r="D6" t="n">
-        <v>131.594061617346</v>
+        <v>163.6265641747586</v>
       </c>
       <c r="E6" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44684</v>
+        <v>44677</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44698</v>
+        <v>44691</v>
       </c>
       <c r="B7" t="n">
-        <v>100.9476678414946</v>
+        <v>46.75931896968744</v>
       </c>
       <c r="C7" t="n">
-        <v>15.24381120016503</v>
+        <v>-32.63792412539502</v>
       </c>
       <c r="D7" t="n">
-        <v>181.9673750099956</v>
+        <v>125.3349183225318</v>
       </c>
       <c r="E7" t="n">
         <v>210</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44691</v>
+        <v>44684</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44705</v>
+        <v>44698</v>
       </c>
       <c r="B8" t="n">
-        <v>144.5427480202852</v>
+        <v>100.9478851463367</v>
       </c>
       <c r="C8" t="n">
-        <v>68.42455263606662</v>
+        <v>21.22089067567362</v>
       </c>
       <c r="D8" t="n">
-        <v>229.5414058592753</v>
+        <v>189.3370022167214</v>
       </c>
       <c r="E8" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44698</v>
+        <v>44691</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44712</v>
+        <v>44705</v>
       </c>
       <c r="B9" t="n">
-        <v>143.7025688733691</v>
+        <v>144.5457906031599</v>
       </c>
       <c r="C9" t="n">
-        <v>62.97695876954388</v>
+        <v>64.35374267874215</v>
       </c>
       <c r="D9" t="n">
-        <v>227.413484065969</v>
+        <v>224.5698674740065</v>
       </c>
       <c r="E9" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44705</v>
+        <v>44698</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44715</v>
+        <v>44712</v>
       </c>
       <c r="B10" t="n">
-        <v>130.4255106951582</v>
+        <v>143.7045735323741</v>
       </c>
       <c r="C10" t="n">
-        <v>50.75761437449848</v>
+        <v>62.26659682737578</v>
       </c>
       <c r="D10" t="n">
-        <v>211.8811828054517</v>
+        <v>227.9855628388913</v>
       </c>
       <c r="E10" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44712</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         <v>44719</v>
       </c>
       <c r="B11" t="n">
-        <v>75.36526542272044</v>
+        <v>75.36486058845836</v>
       </c>
       <c r="C11" t="n">
-        <v>-9.528246446772465</v>
+        <v>-6.569540836686437</v>
       </c>
       <c r="D11" t="n">
-        <v>149.019480751718</v>
+        <v>156.8055150859958</v>
       </c>
       <c r="E11" t="n">
         <v>110</v>
@@ -676,13 +676,13 @@
         <v>44726</v>
       </c>
       <c r="B12" t="n">
-        <v>54.15673164785898</v>
+        <v>54.11095377990072</v>
       </c>
       <c r="C12" t="n">
-        <v>-27.00814283915271</v>
+        <v>-25.44315021479272</v>
       </c>
       <c r="D12" t="n">
-        <v>142.1096255356719</v>
+        <v>145.1739443269914</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
@@ -696,13 +696,13 @@
         <v>44733</v>
       </c>
       <c r="B13" t="n">
-        <v>50.91186483506431</v>
+        <v>53.12774807930727</v>
       </c>
       <c r="C13" t="n">
-        <v>-31.4876122387171</v>
+        <v>-24.3769697184782</v>
       </c>
       <c r="D13" t="n">
-        <v>132.993743531813</v>
+        <v>137.9502800385937</v>
       </c>
       <c r="E13" t="n">
         <v>350</v>
@@ -716,13 +716,13 @@
         <v>44740</v>
       </c>
       <c r="B14" t="n">
-        <v>106.2715497492441</v>
+        <v>106.1653675233048</v>
       </c>
       <c r="C14" t="n">
-        <v>17.57808371934745</v>
+        <v>21.67986635579791</v>
       </c>
       <c r="D14" t="n">
-        <v>196.1913946497551</v>
+        <v>191.1739985626497</v>
       </c>
       <c r="E14" t="n">
         <v>139</v>
@@ -736,13 +736,13 @@
         <v>44743</v>
       </c>
       <c r="B15" t="n">
-        <v>135.1653738487102</v>
+        <v>137.8196410202856</v>
       </c>
       <c r="C15" t="n">
-        <v>52.3682667143133</v>
+        <v>50.35684023387424</v>
       </c>
       <c r="D15" t="n">
-        <v>219.8008836333053</v>
+        <v>227.1682198487232</v>
       </c>
       <c r="E15" t="n">
         <v>70</v>
@@ -756,13 +756,13 @@
         <v>44747</v>
       </c>
       <c r="B16" t="n">
-        <v>103.0832148960596</v>
+        <v>104.8550782559016</v>
       </c>
       <c r="C16" t="n">
-        <v>13.73919438173387</v>
+        <v>19.82739483799385</v>
       </c>
       <c r="D16" t="n">
-        <v>189.4933427509542</v>
+        <v>195.9473321193985</v>
       </c>
       <c r="E16" t="n">
         <v>80</v>
@@ -776,13 +776,13 @@
         <v>44754</v>
       </c>
       <c r="B17" t="n">
-        <v>69.75002313607769</v>
+        <v>68.34851279637297</v>
       </c>
       <c r="C17" t="n">
-        <v>-9.487243680409813</v>
+        <v>-14.80281379926191</v>
       </c>
       <c r="D17" t="n">
-        <v>160.5395300683463</v>
+        <v>157.5940345399316</v>
       </c>
       <c r="E17" t="n">
         <v>70</v>
@@ -796,13 +796,13 @@
         <v>44761</v>
       </c>
       <c r="B18" t="n">
-        <v>59.49466694538695</v>
+        <v>62.53678092196232</v>
       </c>
       <c r="C18" t="n">
-        <v>-27.31977889871503</v>
+        <v>-28.61152251032862</v>
       </c>
       <c r="D18" t="n">
-        <v>142.3919834337048</v>
+        <v>154.1678485213783</v>
       </c>
       <c r="E18" t="n">
         <v>130</v>
@@ -816,13 +816,13 @@
         <v>44775</v>
       </c>
       <c r="B19" t="n">
-        <v>115.063803281306</v>
+        <v>116.6224185566215</v>
       </c>
       <c r="C19" t="n">
-        <v>32.73172875968557</v>
+        <v>26.47081424722923</v>
       </c>
       <c r="D19" t="n">
-        <v>200.3450341784274</v>
+        <v>196.3360532244264</v>
       </c>
       <c r="E19" t="n">
         <v>130</v>
@@ -836,13 +836,13 @@
         <v>44799</v>
       </c>
       <c r="B20" t="n">
-        <v>75.28262579663091</v>
+        <v>82.70279236139018</v>
       </c>
       <c r="C20" t="n">
-        <v>-9.700336045615133</v>
+        <v>-3.567389979686098</v>
       </c>
       <c r="D20" t="n">
-        <v>159.6498822794781</v>
+        <v>166.554628366889</v>
       </c>
       <c r="E20" t="n">
         <v>470</v>
@@ -856,13 +856,13 @@
         <v>44803</v>
       </c>
       <c r="B21" t="n">
-        <v>53.59787180482475</v>
+        <v>56.59699846706553</v>
       </c>
       <c r="C21" t="n">
-        <v>-36.59960189463557</v>
+        <v>-27.23403657017569</v>
       </c>
       <c r="D21" t="n">
-        <v>136.7321228043991</v>
+        <v>145.698389549813</v>
       </c>
       <c r="E21" t="n">
         <v>110</v>
@@ -876,13 +876,13 @@
         <v>44806</v>
       </c>
       <c r="B22" t="n">
-        <v>157.5916556040558</v>
+        <v>161.2141641012757</v>
       </c>
       <c r="C22" t="n">
-        <v>62.73242354937242</v>
+        <v>63.4271224630054</v>
       </c>
       <c r="D22" t="n">
-        <v>246.7328423534778</v>
+        <v>258.4791221573088</v>
       </c>
       <c r="E22" t="n">
         <v>50</v>
@@ -896,13 +896,13 @@
         <v>44810</v>
       </c>
       <c r="B23" t="n">
-        <v>106.8163212664542</v>
+        <v>106.7699197855041</v>
       </c>
       <c r="C23" t="n">
-        <v>8.419004750192023</v>
+        <v>10.50983346060615</v>
       </c>
       <c r="D23" t="n">
-        <v>189.3543894968383</v>
+        <v>197.9511844111263</v>
       </c>
       <c r="E23" t="n">
         <v>90</v>
@@ -916,13 +916,13 @@
         <v>44817</v>
       </c>
       <c r="B24" t="n">
-        <v>91.6724231064406</v>
+        <v>91.82393749100564</v>
       </c>
       <c r="C24" t="n">
-        <v>4.20742511722254</v>
+        <v>-2.004848673559545</v>
       </c>
       <c r="D24" t="n">
-        <v>186.0289466753614</v>
+        <v>181.9672532287665</v>
       </c>
       <c r="E24" t="n">
         <v>110</v>
@@ -936,13 +936,13 @@
         <v>44824</v>
       </c>
       <c r="B25" t="n">
-        <v>126.8816523713275</v>
+        <v>127.4636686010093</v>
       </c>
       <c r="C25" t="n">
-        <v>33.61556002214112</v>
+        <v>36.56802109353906</v>
       </c>
       <c r="D25" t="n">
-        <v>223.2434638669427</v>
+        <v>219.3460134077644</v>
       </c>
       <c r="E25" t="n">
         <v>190</v>
@@ -956,13 +956,13 @@
         <v>44831</v>
       </c>
       <c r="B26" t="n">
-        <v>190.3345681141788</v>
+        <v>189.8924657921076</v>
       </c>
       <c r="C26" t="n">
-        <v>102.6843005604688</v>
+        <v>97.75092245515027</v>
       </c>
       <c r="D26" t="n">
-        <v>280.2845794751515</v>
+        <v>277.751248439689</v>
       </c>
       <c r="E26" t="n">
         <v>130</v>
@@ -976,13 +976,13 @@
         <v>44838</v>
       </c>
       <c r="B27" t="n">
-        <v>205.7869070432868</v>
+        <v>205.6455881793417</v>
       </c>
       <c r="C27" t="n">
-        <v>119.4952703062513</v>
+        <v>108.7443755957585</v>
       </c>
       <c r="D27" t="n">
-        <v>296.6064838023994</v>
+        <v>299.1449537974548</v>
       </c>
       <c r="E27" t="n">
         <v>90</v>
@@ -996,13 +996,13 @@
         <v>44845</v>
       </c>
       <c r="B28" t="n">
-        <v>189.6263426448403</v>
+        <v>190.5464910374731</v>
       </c>
       <c r="C28" t="n">
-        <v>99.03747545038988</v>
+        <v>102.2024087201555</v>
       </c>
       <c r="D28" t="n">
-        <v>280.9011954146345</v>
+        <v>278.6349421915862</v>
       </c>
       <c r="E28" t="n">
         <v>130</v>
@@ -1016,13 +1016,13 @@
         <v>44852</v>
       </c>
       <c r="B29" t="n">
-        <v>164.425376080309</v>
+        <v>162.0910614476067</v>
       </c>
       <c r="C29" t="n">
-        <v>71.6228199184235</v>
+        <v>65.33086029842029</v>
       </c>
       <c r="D29" t="n">
-        <v>254.9756583864785</v>
+        <v>252.0941191942289</v>
       </c>
       <c r="E29" t="n">
         <v>150</v>
@@ -1036,13 +1036,13 @@
         <v>44859</v>
       </c>
       <c r="B30" t="n">
-        <v>139.9060234705991</v>
+        <v>140.4940225525794</v>
       </c>
       <c r="C30" t="n">
-        <v>54.04059903155382</v>
+        <v>42.01291346846598</v>
       </c>
       <c r="D30" t="n">
-        <v>234.1186795267372</v>
+        <v>230.6803255186978</v>
       </c>
       <c r="E30" t="n">
         <v>90</v>
@@ -1056,13 +1056,13 @@
         <v>44865</v>
       </c>
       <c r="B31" t="n">
-        <v>79.79429737187012</v>
+        <v>80.79983555805802</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.59513962996926</v>
+        <v>-9.220990006869254</v>
       </c>
       <c r="D31" t="n">
-        <v>169.5031068055941</v>
+        <v>175.8535861877903</v>
       </c>
       <c r="E31" t="n">
         <v>70</v>
@@ -1076,13 +1076,13 @@
         <v>44869</v>
       </c>
       <c r="B32" t="n">
-        <v>136.7985280687654</v>
+        <v>139.0873488900455</v>
       </c>
       <c r="C32" t="n">
-        <v>55.09628859653481</v>
+        <v>50.62086400832409</v>
       </c>
       <c r="D32" t="n">
-        <v>232.3954148566519</v>
+        <v>233.1399194429722</v>
       </c>
       <c r="E32" t="n">
         <v>70</v>
@@ -1096,13 +1096,13 @@
         <v>44873</v>
       </c>
       <c r="B33" t="n">
-        <v>100.6651331064509</v>
+        <v>100.0038016130874</v>
       </c>
       <c r="C33" t="n">
-        <v>9.642329770229182</v>
+        <v>9.752559943758301</v>
       </c>
       <c r="D33" t="n">
-        <v>191.1047543254832</v>
+        <v>189.4296126781462</v>
       </c>
       <c r="E33" t="n">
         <v>120</v>
@@ -1116,13 +1116,13 @@
         <v>44880</v>
       </c>
       <c r="B34" t="n">
-        <v>93.28866558467539</v>
+        <v>90.85382590885246</v>
       </c>
       <c r="C34" t="n">
-        <v>5.975732580885297</v>
+        <v>-6.618090157022116</v>
       </c>
       <c r="D34" t="n">
-        <v>182.6872944315921</v>
+        <v>170.7989181501583</v>
       </c>
       <c r="E34" t="n">
         <v>80</v>
@@ -1136,13 +1136,13 @@
         <v>44887</v>
       </c>
       <c r="B35" t="n">
-        <v>78.18555275673802</v>
+        <v>77.88037330842087</v>
       </c>
       <c r="C35" t="n">
-        <v>-10.10057184707406</v>
+        <v>-18.30638226652176</v>
       </c>
       <c r="D35" t="n">
-        <v>169.1020497980404</v>
+        <v>172.2918210916187</v>
       </c>
       <c r="E35" t="n">
         <v>100</v>
@@ -1156,13 +1156,13 @@
         <v>44894</v>
       </c>
       <c r="B36" t="n">
-        <v>80.5060554283709</v>
+        <v>81.3297176137844</v>
       </c>
       <c r="C36" t="n">
-        <v>-9.062907008385892</v>
+        <v>-7.687536129457427</v>
       </c>
       <c r="D36" t="n">
-        <v>170.4325866946409</v>
+        <v>163.8324984073691</v>
       </c>
       <c r="E36" t="n">
         <v>50</v>
@@ -1176,13 +1176,13 @@
         <v>44897</v>
       </c>
       <c r="B37" t="n">
-        <v>108.4685899779342</v>
+        <v>113.0922246837932</v>
       </c>
       <c r="C37" t="n">
-        <v>17.20816167049718</v>
+        <v>14.05617029235841</v>
       </c>
       <c r="D37" t="n">
-        <v>203.3198264557619</v>
+        <v>201.7083673011293</v>
       </c>
       <c r="E37" t="n">
         <v>30</v>
@@ -1196,13 +1196,13 @@
         <v>44901</v>
       </c>
       <c r="B38" t="n">
-        <v>92.10222779586158</v>
+        <v>95.06843424640195</v>
       </c>
       <c r="C38" t="n">
-        <v>3.964909015450893</v>
+        <v>-1.129769736679438</v>
       </c>
       <c r="D38" t="n">
-        <v>185.5591949148417</v>
+        <v>186.119833056686</v>
       </c>
       <c r="E38" t="n">
         <v>80</v>
@@ -1216,13 +1216,13 @@
         <v>44908</v>
       </c>
       <c r="B39" t="n">
-        <v>122.0530096097132</v>
+        <v>120.1410137799961</v>
       </c>
       <c r="C39" t="n">
-        <v>37.18014619015283</v>
+        <v>29.68638662064567</v>
       </c>
       <c r="D39" t="n">
-        <v>213.6644953700498</v>
+        <v>205.7974512842582</v>
       </c>
       <c r="E39" t="n">
         <v>50</v>
@@ -1236,13 +1236,13 @@
         <v>44915</v>
       </c>
       <c r="B40" t="n">
-        <v>144.0092638486854</v>
+        <v>143.0532948971274</v>
       </c>
       <c r="C40" t="n">
-        <v>54.19892109182334</v>
+        <v>54.62575710685435</v>
       </c>
       <c r="D40" t="n">
-        <v>237.8751853721217</v>
+        <v>234.1922321222472</v>
       </c>
       <c r="E40" t="n">
         <v>80</v>
@@ -1256,13 +1256,13 @@
         <v>44922</v>
       </c>
       <c r="B41" t="n">
-        <v>141.7029352421098</v>
+        <v>142.632578090673</v>
       </c>
       <c r="C41" t="n">
-        <v>45.99924822458237</v>
+        <v>46.87896722527414</v>
       </c>
       <c r="D41" t="n">
-        <v>227.4359913812034</v>
+        <v>232.0672536920889</v>
       </c>
       <c r="E41" t="n">
         <v>60</v>
@@ -1276,13 +1276,13 @@
         <v>44929</v>
       </c>
       <c r="B42" t="n">
-        <v>122.1698628788161</v>
+        <v>120.9948741190634</v>
       </c>
       <c r="C42" t="n">
-        <v>26.86297419723498</v>
+        <v>30.93886478472965</v>
       </c>
       <c r="D42" t="n">
-        <v>209.9531471037753</v>
+        <v>212.5053732002893</v>
       </c>
       <c r="E42" t="n">
         <v>110</v>
@@ -1296,13 +1296,13 @@
         <v>44936</v>
       </c>
       <c r="B43" t="n">
-        <v>125.7944835447992</v>
+        <v>124.9519563605849</v>
       </c>
       <c r="C43" t="n">
-        <v>31.56170106952386</v>
+        <v>31.74020111023869</v>
       </c>
       <c r="D43" t="n">
-        <v>220.9225814121835</v>
+        <v>216.4645614679343</v>
       </c>
       <c r="E43" t="n">
         <v>210</v>
@@ -1316,13 +1316,13 @@
         <v>44943</v>
       </c>
       <c r="B44" t="n">
-        <v>161.8184373625433</v>
+        <v>161.7050443337809</v>
       </c>
       <c r="C44" t="n">
-        <v>69.87668217547436</v>
+        <v>72.30669826462814</v>
       </c>
       <c r="D44" t="n">
-        <v>246.3332032882729</v>
+        <v>250.4049169620564</v>
       </c>
       <c r="E44" t="n">
         <v>350</v>
@@ -1336,13 +1336,13 @@
         <v>44950</v>
       </c>
       <c r="B45" t="n">
-        <v>205.3541962254415</v>
+        <v>204.2159336019808</v>
       </c>
       <c r="C45" t="n">
-        <v>115.3391583924971</v>
+        <v>117.0863751321747</v>
       </c>
       <c r="D45" t="n">
-        <v>302.2964578871945</v>
+        <v>292.2134678547567</v>
       </c>
       <c r="E45" t="n">
         <v>140</v>
@@ -1356,13 +1356,13 @@
         <v>44957</v>
       </c>
       <c r="B46" t="n">
-        <v>178.671456812385</v>
+        <v>174.2004398019706</v>
       </c>
       <c r="C46" t="n">
-        <v>88.59959995021387</v>
+        <v>74.65966158352802</v>
       </c>
       <c r="D46" t="n">
-        <v>269.8738902089512</v>
+        <v>261.0013302034064</v>
       </c>
       <c r="E46" t="n">
         <v>70</v>
@@ -1376,13 +1376,13 @@
         <v>44960</v>
       </c>
       <c r="B47" t="n">
-        <v>175.7778769744183</v>
+        <v>178.1331044047157</v>
       </c>
       <c r="C47" t="n">
-        <v>84.00628168004859</v>
+        <v>84.50770454373573</v>
       </c>
       <c r="D47" t="n">
-        <v>265.3316260904078</v>
+        <v>265.3135548031827</v>
       </c>
       <c r="E47" t="n">
         <v>30</v>
@@ -1396,13 +1396,13 @@
         <v>44964</v>
       </c>
       <c r="B48" t="n">
-        <v>133.8965474374168</v>
+        <v>134.325534406886</v>
       </c>
       <c r="C48" t="n">
-        <v>43.45240674127553</v>
+        <v>44.65064041106172</v>
       </c>
       <c r="D48" t="n">
-        <v>222.4741744794691</v>
+        <v>225.4870363762118</v>
       </c>
       <c r="E48" t="n">
         <v>90</v>
@@ -1416,13 +1416,13 @@
         <v>44971</v>
       </c>
       <c r="B49" t="n">
-        <v>121.8726514076742</v>
+        <v>122.2230521711557</v>
       </c>
       <c r="C49" t="n">
-        <v>27.25718929927739</v>
+        <v>28.31336567465807</v>
       </c>
       <c r="D49" t="n">
-        <v>209.9780186689357</v>
+        <v>208.6310504365544</v>
       </c>
       <c r="E49" t="n">
         <v>30</v>
@@ -1436,13 +1436,13 @@
         <v>44981</v>
       </c>
       <c r="B50" t="n">
-        <v>210.7159482175332</v>
+        <v>211.1346121920377</v>
       </c>
       <c r="C50" t="n">
-        <v>119.7783346289806</v>
+        <v>110.2027688222376</v>
       </c>
       <c r="D50" t="n">
-        <v>303.4220251078536</v>
+        <v>300.7214495272644</v>
       </c>
       <c r="E50" t="n">
         <v>240</v>
@@ -1456,13 +1456,13 @@
         <v>44985</v>
       </c>
       <c r="B51" t="n">
-        <v>222.8320988658058</v>
+        <v>220.2753894356147</v>
       </c>
       <c r="C51" t="n">
-        <v>137.9613256828115</v>
+        <v>130.6004276692942</v>
       </c>
       <c r="D51" t="n">
-        <v>318.6797162383609</v>
+        <v>310.1282348728395</v>
       </c>
       <c r="E51" t="n">
         <v>100</v>
@@ -1476,13 +1476,13 @@
         <v>44988</v>
       </c>
       <c r="B52" t="n">
-        <v>253.5998566311288</v>
+        <v>249.1484589109158</v>
       </c>
       <c r="C52" t="n">
-        <v>167.8300716582615</v>
+        <v>162.9889118333327</v>
       </c>
       <c r="D52" t="n">
-        <v>345.8885370723221</v>
+        <v>342.1570707473722</v>
       </c>
       <c r="E52" t="n">
         <v>110</v>
@@ -1496,13 +1496,13 @@
         <v>44992</v>
       </c>
       <c r="B53" t="n">
-        <v>235.3979206307227</v>
+        <v>228.7201044957166</v>
       </c>
       <c r="C53" t="n">
-        <v>146.2177125165677</v>
+        <v>133.0934464682599</v>
       </c>
       <c r="D53" t="n">
-        <v>333.3243614956283</v>
+        <v>326.8683484649338</v>
       </c>
       <c r="E53" t="n">
         <v>230</v>
@@ -1516,13 +1516,13 @@
         <v>44999</v>
       </c>
       <c r="B54" t="n">
-        <v>201.5529384595419</v>
+        <v>199.8642023629222</v>
       </c>
       <c r="C54" t="n">
-        <v>103.1298906417091</v>
+        <v>112.4741867206202</v>
       </c>
       <c r="D54" t="n">
-        <v>294.4766823423601</v>
+        <v>289.1685960437932</v>
       </c>
       <c r="E54" t="n">
         <v>140</v>
@@ -1536,13 +1536,13 @@
         <v>45006</v>
       </c>
       <c r="B55" t="n">
-        <v>152.1602159365479</v>
+        <v>151.7071178719012</v>
       </c>
       <c r="C55" t="n">
-        <v>67.38779779932105</v>
+        <v>64.64469670554278</v>
       </c>
       <c r="D55" t="n">
-        <v>243.3179398867208</v>
+        <v>247.8268829338393</v>
       </c>
       <c r="E55" t="n">
         <v>70</v>
@@ -1556,13 +1556,13 @@
         <v>45013</v>
       </c>
       <c r="B56" t="n">
-        <v>131.7323259784651</v>
+        <v>132.1578497856447</v>
       </c>
       <c r="C56" t="n">
-        <v>52.66813576325765</v>
+        <v>38.74402687449775</v>
       </c>
       <c r="D56" t="n">
-        <v>219.5588202086946</v>
+        <v>221.5567062971257</v>
       </c>
       <c r="E56" t="n">
         <v>80</v>
@@ -1576,13 +1576,13 @@
         <v>45020</v>
       </c>
       <c r="B57" t="n">
-        <v>161.4249315885772</v>
+        <v>159.3219227644142</v>
       </c>
       <c r="C57" t="n">
-        <v>71.82260595946343</v>
+        <v>66.54580865215564</v>
       </c>
       <c r="D57" t="n">
-        <v>253.1814638063259</v>
+        <v>259.5490169230758</v>
       </c>
       <c r="E57" t="n">
         <v>80</v>
@@ -1596,13 +1596,13 @@
         <v>45027</v>
       </c>
       <c r="B58" t="n">
-        <v>193.8327774043182</v>
+        <v>189.6601009515093</v>
       </c>
       <c r="C58" t="n">
-        <v>106.8491898442762</v>
+        <v>101.6020391447048</v>
       </c>
       <c r="D58" t="n">
-        <v>281.6378222985495</v>
+        <v>287.955387614818</v>
       </c>
       <c r="E58" t="n">
         <v>240</v>
@@ -1616,13 +1616,13 @@
         <v>45034</v>
       </c>
       <c r="B59" t="n">
-        <v>213.0455878849897</v>
+        <v>211.9447584911269</v>
       </c>
       <c r="C59" t="n">
-        <v>126.4562260421392</v>
+        <v>121.9537361871626</v>
       </c>
       <c r="D59" t="n">
-        <v>301.4799368920278</v>
+        <v>305.6580787402818</v>
       </c>
       <c r="E59" t="n">
         <v>330</v>
@@ -1636,13 +1636,13 @@
         <v>45040</v>
       </c>
       <c r="B60" t="n">
-        <v>185.9700403133297</v>
+        <v>181.7261930745317</v>
       </c>
       <c r="C60" t="n">
-        <v>99.49645921111269</v>
+        <v>94.95573223988235</v>
       </c>
       <c r="D60" t="n">
-        <v>278.3522718678008</v>
+        <v>277.756334661397</v>
       </c>
       <c r="E60" t="n">
         <v>240</v>
@@ -1656,13 +1656,13 @@
         <v>45048</v>
       </c>
       <c r="B61" t="n">
-        <v>153.7395889783222</v>
+        <v>154.3782519718863</v>
       </c>
       <c r="C61" t="n">
-        <v>62.59503347279314</v>
+        <v>58.63585982528443</v>
       </c>
       <c r="D61" t="n">
-        <v>247.4758417636147</v>
+        <v>245.7713370266297</v>
       </c>
       <c r="E61" t="n">
         <v>110</v>
@@ -1676,13 +1676,13 @@
         <v>45055</v>
       </c>
       <c r="B62" t="n">
-        <v>119.6026864886833</v>
+        <v>118.150699167733</v>
       </c>
       <c r="C62" t="n">
-        <v>26.30280226328707</v>
+        <v>24.77669098093561</v>
       </c>
       <c r="D62" t="n">
-        <v>209.9715149550652</v>
+        <v>205.9471816269597</v>
       </c>
       <c r="E62" t="n">
         <v>230</v>
@@ -1696,13 +1696,13 @@
         <v>45062</v>
       </c>
       <c r="B63" t="n">
-        <v>139.8948104108218</v>
+        <v>139.7867996194876</v>
       </c>
       <c r="C63" t="n">
-        <v>39.0708353851492</v>
+        <v>48.6546710175349</v>
       </c>
       <c r="D63" t="n">
-        <v>232.1229112379485</v>
+        <v>240.6707849802344</v>
       </c>
       <c r="E63" t="n">
         <v>50</v>
@@ -1777,25 +1777,25 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>25043.39157592787</v>
+        <v>27597.94018503156</v>
       </c>
       <c r="C2" t="n">
-        <v>158.2510397309537</v>
+        <v>166.1262778281376</v>
       </c>
       <c r="D2" t="n">
-        <v>116.8698686428896</v>
+        <v>129.3321921822005</v>
       </c>
       <c r="E2" t="n">
-        <v>1.551654969830352</v>
+        <v>1.762112930564345</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9542646866966481</v>
+        <v>1.125974058549942</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8228394236817209</v>
+        <v>0.906969827573724</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5555555555555555</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -1803,25 +1803,25 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>17198.12185141055</v>
+        <v>18984.03896029901</v>
       </c>
       <c r="C3" t="n">
-        <v>131.1416099161916</v>
+        <v>137.7825785805267</v>
       </c>
       <c r="D3" t="n">
-        <v>88.55062193834981</v>
+        <v>97.73373520205469</v>
       </c>
       <c r="E3" t="n">
-        <v>1.095277207538844</v>
+        <v>1.240923769371435</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5324745162302466</v>
+        <v>1.044511301048139</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6126345468624864</v>
+        <v>0.6745786416142862</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -1829,25 +1829,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>6866.852602137486</v>
+        <v>6699.592001800872</v>
       </c>
       <c r="C4" t="n">
-        <v>82.86647453667548</v>
+        <v>81.85103543511757</v>
       </c>
       <c r="D4" t="n">
-        <v>64.47925464194168</v>
+        <v>63.64214290957261</v>
       </c>
       <c r="E4" t="n">
-        <v>0.592019341010055</v>
+        <v>0.5816533090017799</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4586641741910792</v>
+        <v>0.4431433427317962</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4818541229044477</v>
+        <v>0.474759655966339</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8039215686274505</v>
+        <v>0.8076923076923078</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBASPA4451023/OBASPA4451023_Sell in_metricas.xlsx
+++ b/modelos/OBASPA4451023/OBASPA4451023_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44656</v>
       </c>
       <c r="B2" t="n">
-        <v>142.3728285614815</v>
+        <v>142.3728866301946</v>
       </c>
       <c r="C2" t="n">
-        <v>62.42342341209474</v>
+        <v>63.03208498527857</v>
       </c>
       <c r="D2" t="n">
-        <v>226.2774573064371</v>
+        <v>217.2178105062074</v>
       </c>
       <c r="E2" t="n">
         <v>180</v>
@@ -496,13 +496,13 @@
         <v>44663</v>
       </c>
       <c r="B3" t="n">
-        <v>202.8925032288139</v>
+        <v>202.8926276548443</v>
       </c>
       <c r="C3" t="n">
-        <v>118.1990479979557</v>
+        <v>121.2620745232993</v>
       </c>
       <c r="D3" t="n">
-        <v>275.7932600876704</v>
+        <v>282.8008942875312</v>
       </c>
       <c r="E3" t="n">
         <v>160</v>
@@ -516,13 +516,13 @@
         <v>44670</v>
       </c>
       <c r="B4" t="n">
-        <v>214.6856014138463</v>
+        <v>214.6855867320779</v>
       </c>
       <c r="C4" t="n">
-        <v>130.9943381845839</v>
+        <v>128.0741484339588</v>
       </c>
       <c r="D4" t="n">
-        <v>301.8312826853604</v>
+        <v>298.8530942602192</v>
       </c>
       <c r="E4" t="n">
         <v>270</v>
@@ -536,13 +536,13 @@
         <v>44677</v>
       </c>
       <c r="B5" t="n">
-        <v>175.4943104201548</v>
+        <v>175.4936323581432</v>
       </c>
       <c r="C5" t="n">
-        <v>95.77992210901493</v>
+        <v>86.62582678749916</v>
       </c>
       <c r="D5" t="n">
-        <v>255.1234374296462</v>
+        <v>253.8454020298173</v>
       </c>
       <c r="E5" t="n">
         <v>90</v>
@@ -556,13 +556,13 @@
         <v>44684</v>
       </c>
       <c r="B6" t="n">
-        <v>82.25721272216576</v>
+        <v>82.25476847367297</v>
       </c>
       <c r="C6" t="n">
-        <v>1.405723879248681</v>
+        <v>-2.288337797848164</v>
       </c>
       <c r="D6" t="n">
-        <v>163.6265641747586</v>
+        <v>166.7188841571206</v>
       </c>
       <c r="E6" t="n">
         <v>130</v>
@@ -576,13 +576,13 @@
         <v>44691</v>
       </c>
       <c r="B7" t="n">
-        <v>46.75931896968744</v>
+        <v>46.75948016242613</v>
       </c>
       <c r="C7" t="n">
-        <v>-32.63792412539502</v>
+        <v>-40.9069182139721</v>
       </c>
       <c r="D7" t="n">
-        <v>125.3349183225318</v>
+        <v>125.3474935466052</v>
       </c>
       <c r="E7" t="n">
         <v>210</v>
@@ -596,13 +596,13 @@
         <v>44698</v>
       </c>
       <c r="B8" t="n">
-        <v>100.9478851463367</v>
+        <v>100.9476678414946</v>
       </c>
       <c r="C8" t="n">
-        <v>21.22089067567362</v>
+        <v>16.94035194800536</v>
       </c>
       <c r="D8" t="n">
-        <v>189.3370022167214</v>
+        <v>185.8420114063582</v>
       </c>
       <c r="E8" t="n">
         <v>210</v>
@@ -616,13 +616,13 @@
         <v>44705</v>
       </c>
       <c r="B9" t="n">
-        <v>144.5457906031599</v>
+        <v>144.5427480202852</v>
       </c>
       <c r="C9" t="n">
-        <v>64.35374267874215</v>
+        <v>58.09890557954439</v>
       </c>
       <c r="D9" t="n">
-        <v>224.5698674740065</v>
+        <v>223.4623035270135</v>
       </c>
       <c r="E9" t="n">
         <v>200</v>
@@ -636,13 +636,13 @@
         <v>44712</v>
       </c>
       <c r="B10" t="n">
-        <v>143.7045735323741</v>
+        <v>143.7025688733691</v>
       </c>
       <c r="C10" t="n">
-        <v>62.26659682737578</v>
+        <v>59.85037627452396</v>
       </c>
       <c r="D10" t="n">
-        <v>227.9855628388913</v>
+        <v>221.5316087612543</v>
       </c>
       <c r="E10" t="n">
         <v>70</v>
@@ -656,13 +656,13 @@
         <v>44719</v>
       </c>
       <c r="B11" t="n">
-        <v>75.36486058845836</v>
+        <v>75.36526542272046</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.569540836686437</v>
+        <v>-6.234552581218069</v>
       </c>
       <c r="D11" t="n">
-        <v>156.8055150859958</v>
+        <v>160.6776818929988</v>
       </c>
       <c r="E11" t="n">
         <v>110</v>
@@ -676,13 +676,13 @@
         <v>44726</v>
       </c>
       <c r="B12" t="n">
-        <v>54.11095377990072</v>
+        <v>54.11121724702422</v>
       </c>
       <c r="C12" t="n">
-        <v>-25.44315021479272</v>
+        <v>-33.837508587328</v>
       </c>
       <c r="D12" t="n">
-        <v>145.1739443269914</v>
+        <v>137.8287619159688</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
@@ -696,13 +696,13 @@
         <v>44733</v>
       </c>
       <c r="B13" t="n">
-        <v>53.12774807930727</v>
+        <v>52.63262089834086</v>
       </c>
       <c r="C13" t="n">
-        <v>-24.3769697184782</v>
+        <v>-23.10408810489272</v>
       </c>
       <c r="D13" t="n">
-        <v>137.9502800385937</v>
+        <v>132.8312537559244</v>
       </c>
       <c r="E13" t="n">
         <v>350</v>
@@ -716,13 +716,13 @@
         <v>44740</v>
       </c>
       <c r="B14" t="n">
-        <v>106.1653675233048</v>
+        <v>106.1270652265723</v>
       </c>
       <c r="C14" t="n">
-        <v>21.67986635579791</v>
+        <v>19.00663450332256</v>
       </c>
       <c r="D14" t="n">
-        <v>191.1739985626497</v>
+        <v>198.3375398416751</v>
       </c>
       <c r="E14" t="n">
         <v>139</v>
@@ -736,13 +736,13 @@
         <v>44743</v>
       </c>
       <c r="B15" t="n">
-        <v>137.8196410202856</v>
+        <v>137.8348309361235</v>
       </c>
       <c r="C15" t="n">
-        <v>50.35684023387424</v>
+        <v>54.72887199630956</v>
       </c>
       <c r="D15" t="n">
-        <v>227.1682198487232</v>
+        <v>227.6542561446574</v>
       </c>
       <c r="E15" t="n">
         <v>70</v>
@@ -756,13 +756,13 @@
         <v>44747</v>
       </c>
       <c r="B16" t="n">
-        <v>104.8550782559016</v>
+        <v>104.8683597080134</v>
       </c>
       <c r="C16" t="n">
-        <v>19.82739483799385</v>
+        <v>18.40672890031227</v>
       </c>
       <c r="D16" t="n">
-        <v>195.9473321193985</v>
+        <v>189.131551094193</v>
       </c>
       <c r="E16" t="n">
         <v>80</v>
@@ -776,13 +776,13 @@
         <v>44754</v>
       </c>
       <c r="B17" t="n">
-        <v>68.34851279637297</v>
+        <v>68.44169271815051</v>
       </c>
       <c r="C17" t="n">
-        <v>-14.80281379926191</v>
+        <v>-16.33464721885238</v>
       </c>
       <c r="D17" t="n">
-        <v>157.5940345399316</v>
+        <v>165.0895830278142</v>
       </c>
       <c r="E17" t="n">
         <v>70</v>
@@ -796,13 +796,13 @@
         <v>44761</v>
       </c>
       <c r="B18" t="n">
-        <v>62.53678092196232</v>
+        <v>62.58519121600925</v>
       </c>
       <c r="C18" t="n">
-        <v>-28.61152251032862</v>
+        <v>-27.56184923773809</v>
       </c>
       <c r="D18" t="n">
-        <v>154.1678485213783</v>
+        <v>142.5439759981582</v>
       </c>
       <c r="E18" t="n">
         <v>130</v>
@@ -816,13 +816,13 @@
         <v>44775</v>
       </c>
       <c r="B19" t="n">
-        <v>116.6224185566215</v>
+        <v>117.000974490059</v>
       </c>
       <c r="C19" t="n">
-        <v>26.47081424722923</v>
+        <v>37.54158741449264</v>
       </c>
       <c r="D19" t="n">
-        <v>196.3360532244264</v>
+        <v>207.7570320557723</v>
       </c>
       <c r="E19" t="n">
         <v>130</v>
@@ -836,13 +836,13 @@
         <v>44799</v>
       </c>
       <c r="B20" t="n">
-        <v>82.70279236139018</v>
+        <v>82.57113946591667</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.567389979686098</v>
+        <v>-3.912795836997315</v>
       </c>
       <c r="D20" t="n">
-        <v>166.554628366889</v>
+        <v>166.6359446880712</v>
       </c>
       <c r="E20" t="n">
         <v>470</v>
@@ -856,13 +856,13 @@
         <v>44803</v>
       </c>
       <c r="B21" t="n">
-        <v>56.59699846706553</v>
+        <v>56.66035680289521</v>
       </c>
       <c r="C21" t="n">
-        <v>-27.23403657017569</v>
+        <v>-25.19577649893045</v>
       </c>
       <c r="D21" t="n">
-        <v>145.698389549813</v>
+        <v>139.9802787882089</v>
       </c>
       <c r="E21" t="n">
         <v>110</v>
@@ -876,13 +876,13 @@
         <v>44806</v>
       </c>
       <c r="B22" t="n">
-        <v>161.2141641012757</v>
+        <v>161.1549242602558</v>
       </c>
       <c r="C22" t="n">
-        <v>63.4271224630054</v>
+        <v>67.56721619403302</v>
       </c>
       <c r="D22" t="n">
-        <v>258.4791221573088</v>
+        <v>250.6763125370231</v>
       </c>
       <c r="E22" t="n">
         <v>50</v>
@@ -896,13 +896,13 @@
         <v>44810</v>
       </c>
       <c r="B23" t="n">
-        <v>106.7699197855041</v>
+        <v>106.6326313876691</v>
       </c>
       <c r="C23" t="n">
-        <v>10.50983346060615</v>
+        <v>16.05993847915339</v>
       </c>
       <c r="D23" t="n">
-        <v>197.9511844111263</v>
+        <v>199.7142050184406</v>
       </c>
       <c r="E23" t="n">
         <v>90</v>
@@ -916,13 +916,13 @@
         <v>44817</v>
       </c>
       <c r="B24" t="n">
-        <v>91.82393749100564</v>
+        <v>91.82192661097015</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.004848673559545</v>
+        <v>7.262316619530821</v>
       </c>
       <c r="D24" t="n">
-        <v>181.9672532287665</v>
+        <v>184.9626231356562</v>
       </c>
       <c r="E24" t="n">
         <v>110</v>
@@ -936,13 +936,13 @@
         <v>44824</v>
       </c>
       <c r="B25" t="n">
-        <v>127.4636686010093</v>
+        <v>127.5300060899468</v>
       </c>
       <c r="C25" t="n">
-        <v>36.56802109353906</v>
+        <v>34.86480587834872</v>
       </c>
       <c r="D25" t="n">
-        <v>219.3460134077644</v>
+        <v>216.1913025654767</v>
       </c>
       <c r="E25" t="n">
         <v>190</v>
@@ -956,13 +956,13 @@
         <v>44831</v>
       </c>
       <c r="B26" t="n">
-        <v>189.8924657921076</v>
+        <v>189.6103590188561</v>
       </c>
       <c r="C26" t="n">
-        <v>97.75092245515027</v>
+        <v>101.4646315079475</v>
       </c>
       <c r="D26" t="n">
-        <v>277.751248439689</v>
+        <v>282.2677415472134</v>
       </c>
       <c r="E26" t="n">
         <v>130</v>
@@ -976,13 +976,13 @@
         <v>44838</v>
       </c>
       <c r="B27" t="n">
-        <v>205.6455881793417</v>
+        <v>208.1122730596645</v>
       </c>
       <c r="C27" t="n">
-        <v>108.7443755957585</v>
+        <v>118.8136947342122</v>
       </c>
       <c r="D27" t="n">
-        <v>299.1449537974548</v>
+        <v>304.1228653887639</v>
       </c>
       <c r="E27" t="n">
         <v>90</v>
@@ -996,13 +996,13 @@
         <v>44845</v>
       </c>
       <c r="B28" t="n">
-        <v>190.5464910374731</v>
+        <v>190.4429367047508</v>
       </c>
       <c r="C28" t="n">
-        <v>102.2024087201555</v>
+        <v>93.82947840548759</v>
       </c>
       <c r="D28" t="n">
-        <v>278.6349421915862</v>
+        <v>285.1619971483228</v>
       </c>
       <c r="E28" t="n">
         <v>130</v>
@@ -1016,13 +1016,13 @@
         <v>44852</v>
       </c>
       <c r="B29" t="n">
-        <v>162.0910614476067</v>
+        <v>162.083934360768</v>
       </c>
       <c r="C29" t="n">
-        <v>65.33086029842029</v>
+        <v>71.16424779853459</v>
       </c>
       <c r="D29" t="n">
-        <v>252.0941191942289</v>
+        <v>252.946253017043</v>
       </c>
       <c r="E29" t="n">
         <v>150</v>
@@ -1036,13 +1036,13 @@
         <v>44859</v>
       </c>
       <c r="B30" t="n">
-        <v>140.4940225525794</v>
+        <v>139.8626834614422</v>
       </c>
       <c r="C30" t="n">
-        <v>42.01291346846598</v>
+        <v>43.97015925141287</v>
       </c>
       <c r="D30" t="n">
-        <v>230.6803255186978</v>
+        <v>233.767474428759</v>
       </c>
       <c r="E30" t="n">
         <v>90</v>
@@ -1056,13 +1056,13 @@
         <v>44865</v>
       </c>
       <c r="B31" t="n">
-        <v>80.79983555805802</v>
+        <v>80.7999158786902</v>
       </c>
       <c r="C31" t="n">
-        <v>-9.220990006869254</v>
+        <v>-12.31663876304761</v>
       </c>
       <c r="D31" t="n">
-        <v>175.8535861877903</v>
+        <v>171.9701486094561</v>
       </c>
       <c r="E31" t="n">
         <v>70</v>
@@ -1076,13 +1076,13 @@
         <v>44869</v>
       </c>
       <c r="B32" t="n">
-        <v>139.0873488900455</v>
+        <v>139.09539574435</v>
       </c>
       <c r="C32" t="n">
-        <v>50.62086400832409</v>
+        <v>52.06958148922472</v>
       </c>
       <c r="D32" t="n">
-        <v>233.1399194429722</v>
+        <v>235.0161340333555</v>
       </c>
       <c r="E32" t="n">
         <v>70</v>
@@ -1096,13 +1096,13 @@
         <v>44873</v>
       </c>
       <c r="B33" t="n">
-        <v>100.0038016130874</v>
+        <v>100.018019846174</v>
       </c>
       <c r="C33" t="n">
-        <v>9.752559943758301</v>
+        <v>10.42569815096367</v>
       </c>
       <c r="D33" t="n">
-        <v>189.4296126781462</v>
+        <v>188.9319424609633</v>
       </c>
       <c r="E33" t="n">
         <v>120</v>
@@ -1116,13 +1116,13 @@
         <v>44880</v>
       </c>
       <c r="B34" t="n">
-        <v>90.85382590885246</v>
+        <v>91.16867059804954</v>
       </c>
       <c r="C34" t="n">
-        <v>-6.618090157022116</v>
+        <v>4.694217468711842</v>
       </c>
       <c r="D34" t="n">
-        <v>170.7989181501583</v>
+        <v>173.6705475804743</v>
       </c>
       <c r="E34" t="n">
         <v>80</v>
@@ -1136,13 +1136,13 @@
         <v>44887</v>
       </c>
       <c r="B35" t="n">
-        <v>77.88037330842087</v>
+        <v>77.87433140887478</v>
       </c>
       <c r="C35" t="n">
-        <v>-18.30638226652176</v>
+        <v>-16.71148486703071</v>
       </c>
       <c r="D35" t="n">
-        <v>172.2918210916187</v>
+        <v>170.7355645954811</v>
       </c>
       <c r="E35" t="n">
         <v>100</v>
@@ -1156,13 +1156,13 @@
         <v>44894</v>
       </c>
       <c r="B36" t="n">
-        <v>81.3297176137844</v>
+        <v>80.49553892375009</v>
       </c>
       <c r="C36" t="n">
-        <v>-7.687536129457427</v>
+        <v>-10.66216498714978</v>
       </c>
       <c r="D36" t="n">
-        <v>163.8324984073691</v>
+        <v>180.9147747153276</v>
       </c>
       <c r="E36" t="n">
         <v>50</v>
@@ -1176,13 +1176,13 @@
         <v>44897</v>
       </c>
       <c r="B37" t="n">
-        <v>113.0922246837932</v>
+        <v>112.9468738894288</v>
       </c>
       <c r="C37" t="n">
-        <v>14.05617029235841</v>
+        <v>26.12174799119006</v>
       </c>
       <c r="D37" t="n">
-        <v>201.7083673011293</v>
+        <v>196.6893693125279</v>
       </c>
       <c r="E37" t="n">
         <v>30</v>
@@ -1196,13 +1196,13 @@
         <v>44901</v>
       </c>
       <c r="B38" t="n">
-        <v>95.06843424640195</v>
+        <v>94.85924698788612</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.129769736679438</v>
+        <v>1.259103822026787</v>
       </c>
       <c r="D38" t="n">
-        <v>186.119833056686</v>
+        <v>186.2946391586152</v>
       </c>
       <c r="E38" t="n">
         <v>80</v>
@@ -1216,13 +1216,13 @@
         <v>44908</v>
       </c>
       <c r="B39" t="n">
-        <v>120.1410137799961</v>
+        <v>120.4088455965724</v>
       </c>
       <c r="C39" t="n">
-        <v>29.68638662064567</v>
+        <v>21.8550095790404</v>
       </c>
       <c r="D39" t="n">
-        <v>205.7974512842582</v>
+        <v>201.9380913499294</v>
       </c>
       <c r="E39" t="n">
         <v>50</v>
@@ -1236,13 +1236,13 @@
         <v>44915</v>
       </c>
       <c r="B40" t="n">
-        <v>143.0532948971274</v>
+        <v>143.0593630383399</v>
       </c>
       <c r="C40" t="n">
-        <v>54.62575710685435</v>
+        <v>56.20486305566389</v>
       </c>
       <c r="D40" t="n">
-        <v>234.1922321222472</v>
+        <v>227.2009945534813</v>
       </c>
       <c r="E40" t="n">
         <v>80</v>
@@ -1256,13 +1256,13 @@
         <v>44922</v>
       </c>
       <c r="B41" t="n">
-        <v>142.632578090673</v>
+        <v>142.6329509651707</v>
       </c>
       <c r="C41" t="n">
-        <v>46.87896722527414</v>
+        <v>52.38470515472067</v>
       </c>
       <c r="D41" t="n">
-        <v>232.0672536920889</v>
+        <v>235.7031875700482</v>
       </c>
       <c r="E41" t="n">
         <v>60</v>
@@ -1276,13 +1276,13 @@
         <v>44929</v>
       </c>
       <c r="B42" t="n">
-        <v>120.9948741190634</v>
+        <v>125.8593878413729</v>
       </c>
       <c r="C42" t="n">
-        <v>30.93886478472965</v>
+        <v>38.83829156519241</v>
       </c>
       <c r="D42" t="n">
-        <v>212.5053732002893</v>
+        <v>219.2370794162252</v>
       </c>
       <c r="E42" t="n">
         <v>110</v>
@@ -1296,13 +1296,13 @@
         <v>44936</v>
       </c>
       <c r="B43" t="n">
-        <v>124.9519563605849</v>
+        <v>125.9996943137059</v>
       </c>
       <c r="C43" t="n">
-        <v>31.74020111023869</v>
+        <v>42.36481878119118</v>
       </c>
       <c r="D43" t="n">
-        <v>216.4645614679343</v>
+        <v>211.5541108899809</v>
       </c>
       <c r="E43" t="n">
         <v>210</v>
@@ -1316,13 +1316,13 @@
         <v>44943</v>
       </c>
       <c r="B44" t="n">
-        <v>161.7050443337809</v>
+        <v>162.1265203223794</v>
       </c>
       <c r="C44" t="n">
-        <v>72.30669826462814</v>
+        <v>72.35037755812685</v>
       </c>
       <c r="D44" t="n">
-        <v>250.4049169620564</v>
+        <v>250.0833581021403</v>
       </c>
       <c r="E44" t="n">
         <v>350</v>
@@ -1336,13 +1336,13 @@
         <v>44950</v>
       </c>
       <c r="B45" t="n">
-        <v>204.2159336019808</v>
+        <v>203.0674217277735</v>
       </c>
       <c r="C45" t="n">
-        <v>117.0863751321747</v>
+        <v>110.3913140298449</v>
       </c>
       <c r="D45" t="n">
-        <v>292.2134678547567</v>
+        <v>292.1322061208095</v>
       </c>
       <c r="E45" t="n">
         <v>140</v>
@@ -1356,13 +1356,13 @@
         <v>44957</v>
       </c>
       <c r="B46" t="n">
-        <v>174.2004398019706</v>
+        <v>173.9804208029217</v>
       </c>
       <c r="C46" t="n">
-        <v>74.65966158352802</v>
+        <v>86.87201776080545</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0013302034064</v>
+        <v>258.8441671241791</v>
       </c>
       <c r="E46" t="n">
         <v>70</v>
@@ -1376,13 +1376,13 @@
         <v>44960</v>
       </c>
       <c r="B47" t="n">
-        <v>178.1331044047157</v>
+        <v>178.0020676267517</v>
       </c>
       <c r="C47" t="n">
-        <v>84.50770454373573</v>
+        <v>84.24149350152088</v>
       </c>
       <c r="D47" t="n">
-        <v>265.3135548031827</v>
+        <v>273.1608033288725</v>
       </c>
       <c r="E47" t="n">
         <v>30</v>
@@ -1396,13 +1396,13 @@
         <v>44964</v>
       </c>
       <c r="B48" t="n">
-        <v>134.325534406886</v>
+        <v>134.6159464335208</v>
       </c>
       <c r="C48" t="n">
-        <v>44.65064041106172</v>
+        <v>46.23970894550988</v>
       </c>
       <c r="D48" t="n">
-        <v>225.4870363762118</v>
+        <v>227.6848223462338</v>
       </c>
       <c r="E48" t="n">
         <v>90</v>
@@ -1416,13 +1416,13 @@
         <v>44971</v>
       </c>
       <c r="B49" t="n">
-        <v>122.2230521711557</v>
+        <v>127.5528484687337</v>
       </c>
       <c r="C49" t="n">
-        <v>28.31336567465807</v>
+        <v>30.35192633196367</v>
       </c>
       <c r="D49" t="n">
-        <v>208.6310504365544</v>
+        <v>218.2003215166616</v>
       </c>
       <c r="E49" t="n">
         <v>30</v>
@@ -1436,13 +1436,13 @@
         <v>44981</v>
       </c>
       <c r="B50" t="n">
-        <v>211.1346121920377</v>
+        <v>212.835770516396</v>
       </c>
       <c r="C50" t="n">
-        <v>110.2027688222376</v>
+        <v>124.2688297077675</v>
       </c>
       <c r="D50" t="n">
-        <v>300.7214495272644</v>
+        <v>306.4485454024372</v>
       </c>
       <c r="E50" t="n">
         <v>240</v>
@@ -1456,13 +1456,13 @@
         <v>44985</v>
       </c>
       <c r="B51" t="n">
-        <v>220.2753894356147</v>
+        <v>223.8527417866979</v>
       </c>
       <c r="C51" t="n">
-        <v>130.6004276692942</v>
+        <v>133.7324650846314</v>
       </c>
       <c r="D51" t="n">
-        <v>310.1282348728395</v>
+        <v>319.0699225475107</v>
       </c>
       <c r="E51" t="n">
         <v>100</v>
@@ -1476,13 +1476,13 @@
         <v>44988</v>
       </c>
       <c r="B52" t="n">
-        <v>249.1484589109158</v>
+        <v>258.212935486529</v>
       </c>
       <c r="C52" t="n">
-        <v>162.9889118333327</v>
+        <v>163.2711897847834</v>
       </c>
       <c r="D52" t="n">
-        <v>342.1570707473722</v>
+        <v>350.3698425942274</v>
       </c>
       <c r="E52" t="n">
         <v>110</v>
@@ -1496,13 +1496,13 @@
         <v>44992</v>
       </c>
       <c r="B53" t="n">
-        <v>228.7201044957166</v>
+        <v>240.1449885174295</v>
       </c>
       <c r="C53" t="n">
-        <v>133.0934464682599</v>
+        <v>141.813551712484</v>
       </c>
       <c r="D53" t="n">
-        <v>326.8683484649338</v>
+        <v>335.9430285929787</v>
       </c>
       <c r="E53" t="n">
         <v>230</v>
@@ -1516,13 +1516,13 @@
         <v>44999</v>
       </c>
       <c r="B54" t="n">
-        <v>199.8642023629222</v>
+        <v>198.8848562792981</v>
       </c>
       <c r="C54" t="n">
-        <v>112.4741867206202</v>
+        <v>109.8716647673491</v>
       </c>
       <c r="D54" t="n">
-        <v>289.1685960437932</v>
+        <v>281.5867074732089</v>
       </c>
       <c r="E54" t="n">
         <v>140</v>
@@ -1536,13 +1536,13 @@
         <v>45006</v>
       </c>
       <c r="B55" t="n">
-        <v>151.7071178719012</v>
+        <v>153.4951797497588</v>
       </c>
       <c r="C55" t="n">
-        <v>64.64469670554278</v>
+        <v>53.38511503076887</v>
       </c>
       <c r="D55" t="n">
-        <v>247.8268829338393</v>
+        <v>243.164178373809</v>
       </c>
       <c r="E55" t="n">
         <v>70</v>
@@ -1556,13 +1556,13 @@
         <v>45013</v>
       </c>
       <c r="B56" t="n">
-        <v>132.1578497856447</v>
+        <v>132.802444256374</v>
       </c>
       <c r="C56" t="n">
-        <v>38.74402687449775</v>
+        <v>42.32134082289685</v>
       </c>
       <c r="D56" t="n">
-        <v>221.5567062971257</v>
+        <v>221.3390229582801</v>
       </c>
       <c r="E56" t="n">
         <v>80</v>
@@ -1576,13 +1576,13 @@
         <v>45020</v>
       </c>
       <c r="B57" t="n">
-        <v>159.3219227644142</v>
+        <v>158.5963699604551</v>
       </c>
       <c r="C57" t="n">
-        <v>66.54580865215564</v>
+        <v>64.2940955891148</v>
       </c>
       <c r="D57" t="n">
-        <v>259.5490169230758</v>
+        <v>253.0267566092785</v>
       </c>
       <c r="E57" t="n">
         <v>80</v>
@@ -1596,13 +1596,13 @@
         <v>45027</v>
       </c>
       <c r="B58" t="n">
-        <v>189.6601009515093</v>
+        <v>194.0010474147874</v>
       </c>
       <c r="C58" t="n">
-        <v>101.6020391447048</v>
+        <v>104.0377402664207</v>
       </c>
       <c r="D58" t="n">
-        <v>287.955387614818</v>
+        <v>288.4077087294027</v>
       </c>
       <c r="E58" t="n">
         <v>240</v>
@@ -1616,13 +1616,13 @@
         <v>45034</v>
       </c>
       <c r="B59" t="n">
-        <v>211.9447584911269</v>
+        <v>213.944534043967</v>
       </c>
       <c r="C59" t="n">
-        <v>121.9537361871626</v>
+        <v>125.8329380613512</v>
       </c>
       <c r="D59" t="n">
-        <v>305.6580787402818</v>
+        <v>301.521382398084</v>
       </c>
       <c r="E59" t="n">
         <v>330</v>
@@ -1636,13 +1636,13 @@
         <v>45040</v>
       </c>
       <c r="B60" t="n">
-        <v>181.7261930745317</v>
+        <v>186.6596141441765</v>
       </c>
       <c r="C60" t="n">
-        <v>94.95573223988235</v>
+        <v>90.83889585838857</v>
       </c>
       <c r="D60" t="n">
-        <v>277.756334661397</v>
+        <v>275.5382120303506</v>
       </c>
       <c r="E60" t="n">
         <v>240</v>
@@ -1656,13 +1656,13 @@
         <v>45048</v>
       </c>
       <c r="B61" t="n">
-        <v>154.3782519718863</v>
+        <v>154.3507341692276</v>
       </c>
       <c r="C61" t="n">
-        <v>58.63585982528443</v>
+        <v>63.68247599420251</v>
       </c>
       <c r="D61" t="n">
-        <v>245.7713370266297</v>
+        <v>247.0153913037175</v>
       </c>
       <c r="E61" t="n">
         <v>110</v>
@@ -1676,13 +1676,13 @@
         <v>45055</v>
       </c>
       <c r="B62" t="n">
-        <v>118.150699167733</v>
+        <v>118.3132714290964</v>
       </c>
       <c r="C62" t="n">
-        <v>24.77669098093561</v>
+        <v>30.42082488214385</v>
       </c>
       <c r="D62" t="n">
-        <v>205.9471816269597</v>
+        <v>207.6930142152297</v>
       </c>
       <c r="E62" t="n">
         <v>230</v>
@@ -1696,13 +1696,13 @@
         <v>45062</v>
       </c>
       <c r="B63" t="n">
-        <v>139.7867996194876</v>
+        <v>138.8914204620461</v>
       </c>
       <c r="C63" t="n">
-        <v>48.6546710175349</v>
+        <v>47.68900364020294</v>
       </c>
       <c r="D63" t="n">
-        <v>240.6707849802344</v>
+        <v>227.4213180732592</v>
       </c>
       <c r="E63" t="n">
         <v>50</v>
@@ -1777,22 +1777,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>27597.94018503156</v>
+        <v>27915.25533525457</v>
       </c>
       <c r="C2" t="n">
-        <v>166.1262778281376</v>
+        <v>167.0785902958681</v>
       </c>
       <c r="D2" t="n">
-        <v>129.3321921822005</v>
+        <v>130.2300147451408</v>
       </c>
       <c r="E2" t="n">
-        <v>1.762112930564345</v>
+        <v>1.770304245980029</v>
       </c>
       <c r="F2" t="n">
-        <v>1.125974058549942</v>
+        <v>1.167233702333476</v>
       </c>
       <c r="G2" t="n">
-        <v>0.906969827573724</v>
+        <v>0.9096753417976881</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
@@ -1803,22 +1803,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>18984.03896029901</v>
+        <v>19103.80938120886</v>
       </c>
       <c r="C3" t="n">
-        <v>137.7825785805267</v>
+        <v>138.2165307812668</v>
       </c>
       <c r="D3" t="n">
-        <v>97.73373520205469</v>
+        <v>97.51006011917947</v>
       </c>
       <c r="E3" t="n">
-        <v>1.240923769371435</v>
+        <v>1.242958850700905</v>
       </c>
       <c r="F3" t="n">
-        <v>1.044511301048139</v>
+        <v>1.085853523572706</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6745786416142862</v>
+        <v>0.6719955995577855</v>
       </c>
       <c r="H3" t="n">
         <v>0.6666666666666666</v>
@@ -1829,22 +1829,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>6699.592001800872</v>
+        <v>6726.076338817181</v>
       </c>
       <c r="C4" t="n">
-        <v>81.85103543511757</v>
+        <v>82.01265962531139</v>
       </c>
       <c r="D4" t="n">
-        <v>63.64214290957261</v>
+        <v>63.91397969779086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5816533090017799</v>
+        <v>0.5866267010501544</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4431433427317962</v>
+        <v>0.4355438500252559</v>
       </c>
       <c r="G4" t="n">
-        <v>0.474759655966339</v>
+        <v>0.4760071409104339</v>
       </c>
       <c r="H4" t="n">
         <v>0.8076923076923078</v>

--- a/modelos/OBASPA4451023/OBASPA4451023_Sell in_metricas.xlsx
+++ b/modelos/OBASPA4451023/OBASPA4451023_Sell in_metricas.xlsx
@@ -473,182 +473,182 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="B2" t="n">
+        <v>202.8926276548443</v>
+      </c>
+      <c r="C2" t="n">
+        <v>123.8126221570672</v>
+      </c>
+      <c r="D2" t="n">
+        <v>283.938884567621</v>
+      </c>
+      <c r="E2" t="n">
+        <v>160</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>44656</v>
-      </c>
-      <c r="B2" t="n">
-        <v>142.3728866301946</v>
-      </c>
-      <c r="C2" t="n">
-        <v>63.03208498527857</v>
-      </c>
-      <c r="D2" t="n">
-        <v>217.2178105062074</v>
-      </c>
-      <c r="E2" t="n">
-        <v>180</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>44649</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="B3" t="n">
+        <v>214.6855867320779</v>
+      </c>
+      <c r="C3" t="n">
+        <v>130.4309280324053</v>
+      </c>
+      <c r="D3" t="n">
+        <v>296.0751547952702</v>
+      </c>
+      <c r="E3" t="n">
+        <v>270</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>44663</v>
-      </c>
-      <c r="B3" t="n">
-        <v>202.8926276548443</v>
-      </c>
-      <c r="C3" t="n">
-        <v>121.2620745232993</v>
-      </c>
-      <c r="D3" t="n">
-        <v>282.8008942875312</v>
-      </c>
-      <c r="E3" t="n">
-        <v>160</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>44656</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="B4" t="n">
+        <v>175.4936323581432</v>
+      </c>
+      <c r="C4" t="n">
+        <v>98.1890942134164</v>
+      </c>
+      <c r="D4" t="n">
+        <v>257.8005077618105</v>
+      </c>
+      <c r="E4" t="n">
+        <v>90</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>44670</v>
-      </c>
-      <c r="B4" t="n">
-        <v>214.6855867320779</v>
-      </c>
-      <c r="C4" t="n">
-        <v>128.0741484339588</v>
-      </c>
-      <c r="D4" t="n">
-        <v>298.8530942602192</v>
-      </c>
-      <c r="E4" t="n">
-        <v>270</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>44663</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B5" t="n">
+        <v>82.25476847367297</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-6.624508091121368</v>
+      </c>
+      <c r="D5" t="n">
+        <v>164.8849846483775</v>
+      </c>
+      <c r="E5" t="n">
+        <v>130</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>44677</v>
-      </c>
-      <c r="B5" t="n">
-        <v>175.4936323581432</v>
-      </c>
-      <c r="C5" t="n">
-        <v>86.62582678749916</v>
-      </c>
-      <c r="D5" t="n">
-        <v>253.8454020298173</v>
-      </c>
-      <c r="E5" t="n">
-        <v>90</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>44670</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B6" t="n">
+        <v>46.75948016242613</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-39.59458488108513</v>
+      </c>
+      <c r="D6" t="n">
+        <v>128.2929802406299</v>
+      </c>
+      <c r="E6" t="n">
+        <v>210</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>44684</v>
-      </c>
-      <c r="B6" t="n">
-        <v>82.25476847367297</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-2.288337797848164</v>
-      </c>
-      <c r="D6" t="n">
-        <v>166.7188841571206</v>
-      </c>
-      <c r="E6" t="n">
-        <v>130</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>44677</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44691</v>
+        <v>44698</v>
       </c>
       <c r="B7" t="n">
-        <v>46.75948016242613</v>
+        <v>100.9476678414946</v>
       </c>
       <c r="C7" t="n">
-        <v>-40.9069182139721</v>
+        <v>20.6686020735124</v>
       </c>
       <c r="D7" t="n">
-        <v>125.3474935466052</v>
+        <v>180.9920855541929</v>
       </c>
       <c r="E7" t="n">
         <v>210</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44684</v>
+        <v>44691</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B8" t="n">
+        <v>144.5427480202852</v>
+      </c>
+      <c r="C8" t="n">
+        <v>57.48549709871839</v>
+      </c>
+      <c r="D8" t="n">
+        <v>223.1933138288957</v>
+      </c>
+      <c r="E8" t="n">
+        <v>200</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>44698</v>
-      </c>
-      <c r="B8" t="n">
-        <v>100.9476678414946</v>
-      </c>
-      <c r="C8" t="n">
-        <v>16.94035194800536</v>
-      </c>
-      <c r="D8" t="n">
-        <v>185.8420114063582</v>
-      </c>
-      <c r="E8" t="n">
-        <v>210</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>44691</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B9" t="n">
+        <v>143.7025688733691</v>
+      </c>
+      <c r="C9" t="n">
+        <v>56.13577093721094</v>
+      </c>
+      <c r="D9" t="n">
+        <v>226.6489187417079</v>
+      </c>
+      <c r="E9" t="n">
+        <v>70</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <v>44705</v>
-      </c>
-      <c r="B9" t="n">
-        <v>144.5427480202852</v>
-      </c>
-      <c r="C9" t="n">
-        <v>58.09890557954439</v>
-      </c>
-      <c r="D9" t="n">
-        <v>223.4623035270135</v>
-      </c>
-      <c r="E9" t="n">
-        <v>200</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>44698</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B10" t="n">
+        <v>130.4255106951582</v>
+      </c>
+      <c r="C10" t="n">
+        <v>44.71022908215281</v>
+      </c>
+      <c r="D10" t="n">
+        <v>212.208795803249</v>
+      </c>
+      <c r="E10" t="n">
+        <v>110</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>44712</v>
-      </c>
-      <c r="B10" t="n">
-        <v>143.7025688733691</v>
-      </c>
-      <c r="C10" t="n">
-        <v>59.85037627452396</v>
-      </c>
-      <c r="D10" t="n">
-        <v>221.5316087612543</v>
-      </c>
-      <c r="E10" t="n">
-        <v>70</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>44705</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         <v>44719</v>
       </c>
       <c r="B11" t="n">
-        <v>75.36526542272046</v>
+        <v>75.36526542272044</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.234552581218069</v>
+        <v>-9.026681779518585</v>
       </c>
       <c r="D11" t="n">
-        <v>160.6776818929988</v>
+        <v>158.1880145947287</v>
       </c>
       <c r="E11" t="n">
         <v>110</v>
@@ -676,13 +676,13 @@
         <v>44726</v>
       </c>
       <c r="B12" t="n">
-        <v>54.11121724702422</v>
+        <v>54.15673164785898</v>
       </c>
       <c r="C12" t="n">
-        <v>-33.837508587328</v>
+        <v>-35.3072950492927</v>
       </c>
       <c r="D12" t="n">
-        <v>137.8287619159688</v>
+        <v>140.9433514292033</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
@@ -696,13 +696,13 @@
         <v>44733</v>
       </c>
       <c r="B13" t="n">
-        <v>52.63262089834086</v>
+        <v>50.90897520573918</v>
       </c>
       <c r="C13" t="n">
-        <v>-23.10408810489272</v>
+        <v>-25.39074535488917</v>
       </c>
       <c r="D13" t="n">
-        <v>132.8312537559244</v>
+        <v>135.9333762534478</v>
       </c>
       <c r="E13" t="n">
         <v>350</v>
@@ -716,13 +716,13 @@
         <v>44740</v>
       </c>
       <c r="B14" t="n">
-        <v>106.1270652265723</v>
+        <v>106.2715497492441</v>
       </c>
       <c r="C14" t="n">
-        <v>19.00663450332256</v>
+        <v>23.0482467301937</v>
       </c>
       <c r="D14" t="n">
-        <v>198.3375398416751</v>
+        <v>190.758730499574</v>
       </c>
       <c r="E14" t="n">
         <v>139</v>
@@ -736,13 +736,13 @@
         <v>44743</v>
       </c>
       <c r="B15" t="n">
-        <v>137.8348309361235</v>
+        <v>135.1653738487102</v>
       </c>
       <c r="C15" t="n">
-        <v>54.72887199630956</v>
+        <v>49.73411173441506</v>
       </c>
       <c r="D15" t="n">
-        <v>227.6542561446574</v>
+        <v>220.2745905449229</v>
       </c>
       <c r="E15" t="n">
         <v>70</v>
@@ -756,13 +756,13 @@
         <v>44747</v>
       </c>
       <c r="B16" t="n">
-        <v>104.8683597080134</v>
+        <v>103.0832148960596</v>
       </c>
       <c r="C16" t="n">
-        <v>18.40672890031227</v>
+        <v>13.51037926409483</v>
       </c>
       <c r="D16" t="n">
-        <v>189.131551094193</v>
+        <v>188.6857817794226</v>
       </c>
       <c r="E16" t="n">
         <v>80</v>
@@ -776,13 +776,13 @@
         <v>44754</v>
       </c>
       <c r="B17" t="n">
-        <v>68.44169271815051</v>
+        <v>69.75002313607769</v>
       </c>
       <c r="C17" t="n">
-        <v>-16.33464721885238</v>
+        <v>-15.07141815381373</v>
       </c>
       <c r="D17" t="n">
-        <v>165.0895830278142</v>
+        <v>152.6100167606445</v>
       </c>
       <c r="E17" t="n">
         <v>70</v>
@@ -796,13 +796,13 @@
         <v>44761</v>
       </c>
       <c r="B18" t="n">
-        <v>62.58519121600925</v>
+        <v>59.49466694538695</v>
       </c>
       <c r="C18" t="n">
-        <v>-27.56184923773809</v>
+        <v>-26.52360515273685</v>
       </c>
       <c r="D18" t="n">
-        <v>142.5439759981582</v>
+        <v>148.7447430122582</v>
       </c>
       <c r="E18" t="n">
         <v>130</v>
@@ -816,13 +816,13 @@
         <v>44775</v>
       </c>
       <c r="B19" t="n">
-        <v>117.000974490059</v>
+        <v>115.063803281306</v>
       </c>
       <c r="C19" t="n">
-        <v>37.54158741449264</v>
+        <v>30.87714722279609</v>
       </c>
       <c r="D19" t="n">
-        <v>207.7570320557723</v>
+        <v>200.1243538543507</v>
       </c>
       <c r="E19" t="n">
         <v>130</v>
@@ -836,13 +836,13 @@
         <v>44799</v>
       </c>
       <c r="B20" t="n">
-        <v>82.57113946591667</v>
+        <v>75.28262579663091</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.912795836997315</v>
+        <v>-11.82936200448152</v>
       </c>
       <c r="D20" t="n">
-        <v>166.6359446880712</v>
+        <v>160.1763303859544</v>
       </c>
       <c r="E20" t="n">
         <v>470</v>
@@ -856,13 +856,13 @@
         <v>44803</v>
       </c>
       <c r="B21" t="n">
-        <v>56.66035680289521</v>
+        <v>53.59787180482475</v>
       </c>
       <c r="C21" t="n">
-        <v>-25.19577649893045</v>
+        <v>-42.81141570609859</v>
       </c>
       <c r="D21" t="n">
-        <v>139.9802787882089</v>
+        <v>143.8786307860708</v>
       </c>
       <c r="E21" t="n">
         <v>110</v>
@@ -876,13 +876,13 @@
         <v>44806</v>
       </c>
       <c r="B22" t="n">
-        <v>161.1549242602558</v>
+        <v>157.5916556040558</v>
       </c>
       <c r="C22" t="n">
-        <v>67.56721619403302</v>
+        <v>65.41111171235612</v>
       </c>
       <c r="D22" t="n">
-        <v>250.6763125370231</v>
+        <v>251.6879978684988</v>
       </c>
       <c r="E22" t="n">
         <v>50</v>
@@ -896,13 +896,13 @@
         <v>44810</v>
       </c>
       <c r="B23" t="n">
-        <v>106.6326313876691</v>
+        <v>106.8163212664542</v>
       </c>
       <c r="C23" t="n">
-        <v>16.05993847915339</v>
+        <v>19.36776078218463</v>
       </c>
       <c r="D23" t="n">
-        <v>199.7142050184406</v>
+        <v>198.2096522668022</v>
       </c>
       <c r="E23" t="n">
         <v>90</v>
@@ -916,13 +916,13 @@
         <v>44817</v>
       </c>
       <c r="B24" t="n">
-        <v>91.82192661097015</v>
+        <v>91.6724231064406</v>
       </c>
       <c r="C24" t="n">
-        <v>7.262316619530821</v>
+        <v>4.429234132707569</v>
       </c>
       <c r="D24" t="n">
-        <v>184.9626231356562</v>
+        <v>185.4459595742394</v>
       </c>
       <c r="E24" t="n">
         <v>110</v>
@@ -936,13 +936,13 @@
         <v>44824</v>
       </c>
       <c r="B25" t="n">
-        <v>127.5300060899468</v>
+        <v>126.8816523713275</v>
       </c>
       <c r="C25" t="n">
-        <v>34.86480587834872</v>
+        <v>36.62722912298685</v>
       </c>
       <c r="D25" t="n">
-        <v>216.1913025654767</v>
+        <v>215.9875944185018</v>
       </c>
       <c r="E25" t="n">
         <v>190</v>
@@ -956,13 +956,13 @@
         <v>44831</v>
       </c>
       <c r="B26" t="n">
-        <v>189.6103590188561</v>
+        <v>190.3345681141788</v>
       </c>
       <c r="C26" t="n">
-        <v>101.4646315079475</v>
+        <v>101.097955723171</v>
       </c>
       <c r="D26" t="n">
-        <v>282.2677415472134</v>
+        <v>278.1170752980838</v>
       </c>
       <c r="E26" t="n">
         <v>130</v>
@@ -976,13 +976,13 @@
         <v>44838</v>
       </c>
       <c r="B27" t="n">
-        <v>208.1122730596645</v>
+        <v>206.1690821074846</v>
       </c>
       <c r="C27" t="n">
-        <v>118.8136947342122</v>
+        <v>110.0383532769914</v>
       </c>
       <c r="D27" t="n">
-        <v>304.1228653887639</v>
+        <v>294.566918465956</v>
       </c>
       <c r="E27" t="n">
         <v>90</v>
@@ -996,13 +996,13 @@
         <v>44845</v>
       </c>
       <c r="B28" t="n">
-        <v>190.4429367047508</v>
+        <v>189.6263426448403</v>
       </c>
       <c r="C28" t="n">
-        <v>93.82947840548759</v>
+        <v>98.53383945017464</v>
       </c>
       <c r="D28" t="n">
-        <v>285.1619971483228</v>
+        <v>284.1658797046065</v>
       </c>
       <c r="E28" t="n">
         <v>130</v>
@@ -1016,13 +1016,13 @@
         <v>44852</v>
       </c>
       <c r="B29" t="n">
-        <v>162.083934360768</v>
+        <v>164.425376080309</v>
       </c>
       <c r="C29" t="n">
-        <v>71.16424779853459</v>
+        <v>75.58018356431984</v>
       </c>
       <c r="D29" t="n">
-        <v>252.946253017043</v>
+        <v>252.6219064527616</v>
       </c>
       <c r="E29" t="n">
         <v>150</v>
@@ -1036,13 +1036,13 @@
         <v>44859</v>
       </c>
       <c r="B30" t="n">
-        <v>139.8626834614422</v>
+        <v>139.9060234705991</v>
       </c>
       <c r="C30" t="n">
-        <v>43.97015925141287</v>
+        <v>48.22486052641423</v>
       </c>
       <c r="D30" t="n">
-        <v>233.767474428759</v>
+        <v>226.440808165767</v>
       </c>
       <c r="E30" t="n">
         <v>90</v>
@@ -1056,13 +1056,13 @@
         <v>44865</v>
       </c>
       <c r="B31" t="n">
-        <v>80.7999158786902</v>
+        <v>80.10052970173776</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.31663876304761</v>
+        <v>-5.771430736248216</v>
       </c>
       <c r="D31" t="n">
-        <v>171.9701486094561</v>
+        <v>175.1428777691335</v>
       </c>
       <c r="E31" t="n">
         <v>70</v>
@@ -1076,13 +1076,13 @@
         <v>44869</v>
       </c>
       <c r="B32" t="n">
-        <v>139.09539574435</v>
+        <v>136.7985280687654</v>
       </c>
       <c r="C32" t="n">
-        <v>52.06958148922472</v>
+        <v>48.86779122217436</v>
       </c>
       <c r="D32" t="n">
-        <v>235.0161340333555</v>
+        <v>225.0512166979782</v>
       </c>
       <c r="E32" t="n">
         <v>70</v>
@@ -1096,13 +1096,13 @@
         <v>44873</v>
       </c>
       <c r="B33" t="n">
-        <v>100.018019846174</v>
+        <v>100.6651331064509</v>
       </c>
       <c r="C33" t="n">
-        <v>10.42569815096367</v>
+        <v>4.012594440146134</v>
       </c>
       <c r="D33" t="n">
-        <v>188.9319424609633</v>
+        <v>185.2952227265433</v>
       </c>
       <c r="E33" t="n">
         <v>120</v>
@@ -1116,13 +1116,13 @@
         <v>44880</v>
       </c>
       <c r="B34" t="n">
-        <v>91.16867059804954</v>
+        <v>88.65473540230357</v>
       </c>
       <c r="C34" t="n">
-        <v>4.694217468711842</v>
+        <v>0.4735139541200955</v>
       </c>
       <c r="D34" t="n">
-        <v>173.6705475804743</v>
+        <v>173.9527130556374</v>
       </c>
       <c r="E34" t="n">
         <v>80</v>
@@ -1136,13 +1136,13 @@
         <v>44887</v>
       </c>
       <c r="B35" t="n">
-        <v>77.87433140887478</v>
+        <v>77.71841665611963</v>
       </c>
       <c r="C35" t="n">
-        <v>-16.71148486703071</v>
+        <v>-9.805220172901349</v>
       </c>
       <c r="D35" t="n">
-        <v>170.7355645954811</v>
+        <v>166.8656644608975</v>
       </c>
       <c r="E35" t="n">
         <v>100</v>
@@ -1156,13 +1156,13 @@
         <v>44894</v>
       </c>
       <c r="B36" t="n">
-        <v>80.49553892375009</v>
+        <v>80.72214033120054</v>
       </c>
       <c r="C36" t="n">
-        <v>-10.66216498714978</v>
+        <v>-2.422416748416283</v>
       </c>
       <c r="D36" t="n">
-        <v>180.9147747153276</v>
+        <v>168.3341801883851</v>
       </c>
       <c r="E36" t="n">
         <v>50</v>
@@ -1176,13 +1176,13 @@
         <v>44897</v>
       </c>
       <c r="B37" t="n">
-        <v>112.9468738894288</v>
+        <v>106.7691777845633</v>
       </c>
       <c r="C37" t="n">
-        <v>26.12174799119006</v>
+        <v>22.5527494728628</v>
       </c>
       <c r="D37" t="n">
-        <v>196.6893693125279</v>
+        <v>193.0965445307502</v>
       </c>
       <c r="E37" t="n">
         <v>30</v>
@@ -1196,13 +1196,13 @@
         <v>44901</v>
       </c>
       <c r="B38" t="n">
-        <v>94.85924698788612</v>
+        <v>91.41960982800549</v>
       </c>
       <c r="C38" t="n">
-        <v>1.259103822026787</v>
+        <v>5.73403686640216</v>
       </c>
       <c r="D38" t="n">
-        <v>186.2946391586152</v>
+        <v>177.4849194281732</v>
       </c>
       <c r="E38" t="n">
         <v>80</v>
@@ -1216,13 +1216,13 @@
         <v>44908</v>
       </c>
       <c r="B39" t="n">
-        <v>120.4088455965724</v>
+        <v>121.8342170685402</v>
       </c>
       <c r="C39" t="n">
-        <v>21.8550095790404</v>
+        <v>35.19300930961356</v>
       </c>
       <c r="D39" t="n">
-        <v>201.9380913499294</v>
+        <v>210.3767973610614</v>
       </c>
       <c r="E39" t="n">
         <v>50</v>
@@ -1236,13 +1236,13 @@
         <v>44915</v>
       </c>
       <c r="B40" t="n">
-        <v>143.0593630383399</v>
+        <v>142.2398014533648</v>
       </c>
       <c r="C40" t="n">
-        <v>56.20486305566389</v>
+        <v>58.93327674317727</v>
       </c>
       <c r="D40" t="n">
-        <v>227.2009945534813</v>
+        <v>230.9273877405081</v>
       </c>
       <c r="E40" t="n">
         <v>80</v>
@@ -1256,13 +1256,13 @@
         <v>44922</v>
       </c>
       <c r="B41" t="n">
-        <v>142.6329509651707</v>
+        <v>142.7124971443442</v>
       </c>
       <c r="C41" t="n">
-        <v>52.38470515472067</v>
+        <v>47.96143234586572</v>
       </c>
       <c r="D41" t="n">
-        <v>235.7031875700482</v>
+        <v>227.9267340499982</v>
       </c>
       <c r="E41" t="n">
         <v>60</v>
@@ -1276,13 +1276,13 @@
         <v>44929</v>
       </c>
       <c r="B42" t="n">
-        <v>125.8593878413729</v>
+        <v>123.1801356287575</v>
       </c>
       <c r="C42" t="n">
-        <v>38.83829156519241</v>
+        <v>39.0515910668032</v>
       </c>
       <c r="D42" t="n">
-        <v>219.2370794162252</v>
+        <v>208.5216756560939</v>
       </c>
       <c r="E42" t="n">
         <v>110</v>
@@ -1296,13 +1296,13 @@
         <v>44936</v>
       </c>
       <c r="B43" t="n">
-        <v>125.9996943137059</v>
+        <v>124.2751705625879</v>
       </c>
       <c r="C43" t="n">
-        <v>42.36481878119118</v>
+        <v>34.75441209691672</v>
       </c>
       <c r="D43" t="n">
-        <v>211.5541108899809</v>
+        <v>223.2568448775218</v>
       </c>
       <c r="E43" t="n">
         <v>210</v>
@@ -1316,13 +1316,13 @@
         <v>44943</v>
       </c>
       <c r="B44" t="n">
-        <v>162.1265203223794</v>
+        <v>163.8875824351744</v>
       </c>
       <c r="C44" t="n">
-        <v>72.35037755812685</v>
+        <v>72.87791197613485</v>
       </c>
       <c r="D44" t="n">
-        <v>250.0833581021403</v>
+        <v>253.9898684660583</v>
       </c>
       <c r="E44" t="n">
         <v>350</v>
@@ -1336,13 +1336,13 @@
         <v>44950</v>
       </c>
       <c r="B45" t="n">
-        <v>203.0674217277735</v>
+        <v>199.9728691281911</v>
       </c>
       <c r="C45" t="n">
-        <v>110.3913140298449</v>
+        <v>108.9138673545519</v>
       </c>
       <c r="D45" t="n">
-        <v>292.1322061208095</v>
+        <v>286.0450643495063</v>
       </c>
       <c r="E45" t="n">
         <v>140</v>
@@ -1356,13 +1356,13 @@
         <v>44957</v>
       </c>
       <c r="B46" t="n">
-        <v>173.9804208029217</v>
+        <v>176.1575140658883</v>
       </c>
       <c r="C46" t="n">
-        <v>86.87201776080545</v>
+        <v>76.97770240783886</v>
       </c>
       <c r="D46" t="n">
-        <v>258.8441671241791</v>
+        <v>267.3571145050312</v>
       </c>
       <c r="E46" t="n">
         <v>70</v>
@@ -1376,13 +1376,13 @@
         <v>44960</v>
       </c>
       <c r="B47" t="n">
-        <v>178.0020676267517</v>
+        <v>176.4926820805733</v>
       </c>
       <c r="C47" t="n">
-        <v>84.24149350152088</v>
+        <v>80.38651231647643</v>
       </c>
       <c r="D47" t="n">
-        <v>273.1608033288725</v>
+        <v>268.1350001196704</v>
       </c>
       <c r="E47" t="n">
         <v>30</v>
@@ -1396,13 +1396,13 @@
         <v>44964</v>
       </c>
       <c r="B48" t="n">
-        <v>134.6159464335208</v>
+        <v>134.3245063462659</v>
       </c>
       <c r="C48" t="n">
-        <v>46.23970894550988</v>
+        <v>40.10393745060902</v>
       </c>
       <c r="D48" t="n">
-        <v>227.6848223462338</v>
+        <v>224.2735915888775</v>
       </c>
       <c r="E48" t="n">
         <v>90</v>
@@ -1416,13 +1416,13 @@
         <v>44971</v>
       </c>
       <c r="B49" t="n">
-        <v>127.5528484687337</v>
+        <v>121.0693064804088</v>
       </c>
       <c r="C49" t="n">
-        <v>30.35192633196367</v>
+        <v>33.54692729614496</v>
       </c>
       <c r="D49" t="n">
-        <v>218.2003215166616</v>
+        <v>205.2324954046011</v>
       </c>
       <c r="E49" t="n">
         <v>30</v>
@@ -1436,13 +1436,13 @@
         <v>44981</v>
       </c>
       <c r="B50" t="n">
-        <v>212.835770516396</v>
+        <v>210.15435564836</v>
       </c>
       <c r="C50" t="n">
-        <v>124.2688297077675</v>
+        <v>123.5416692907094</v>
       </c>
       <c r="D50" t="n">
-        <v>306.4485454024372</v>
+        <v>293.3660800041952</v>
       </c>
       <c r="E50" t="n">
         <v>240</v>
@@ -1456,13 +1456,13 @@
         <v>44985</v>
       </c>
       <c r="B51" t="n">
-        <v>223.8527417866979</v>
+        <v>221.8379021762075</v>
       </c>
       <c r="C51" t="n">
-        <v>133.7324650846314</v>
+        <v>132.9988125062478</v>
       </c>
       <c r="D51" t="n">
-        <v>319.0699225475107</v>
+        <v>315.9202381854155</v>
       </c>
       <c r="E51" t="n">
         <v>100</v>
@@ -1476,13 +1476,13 @@
         <v>44988</v>
       </c>
       <c r="B52" t="n">
-        <v>258.212935486529</v>
+        <v>253.718555636297</v>
       </c>
       <c r="C52" t="n">
-        <v>163.2711897847834</v>
+        <v>163.0762668902446</v>
       </c>
       <c r="D52" t="n">
-        <v>350.3698425942274</v>
+        <v>348.347382562415</v>
       </c>
       <c r="E52" t="n">
         <v>110</v>
@@ -1496,13 +1496,13 @@
         <v>44992</v>
       </c>
       <c r="B53" t="n">
-        <v>240.1449885174295</v>
+        <v>238.2776894563123</v>
       </c>
       <c r="C53" t="n">
-        <v>141.813551712484</v>
+        <v>146.9403379980625</v>
       </c>
       <c r="D53" t="n">
-        <v>335.9430285929787</v>
+        <v>336.5813627254809</v>
       </c>
       <c r="E53" t="n">
         <v>230</v>
@@ -1516,13 +1516,13 @@
         <v>44999</v>
       </c>
       <c r="B54" t="n">
-        <v>198.8848562792981</v>
+        <v>200.9706036654203</v>
       </c>
       <c r="C54" t="n">
-        <v>109.8716647673491</v>
+        <v>102.0509990523654</v>
       </c>
       <c r="D54" t="n">
-        <v>281.5867074732089</v>
+        <v>293.1510281120917</v>
       </c>
       <c r="E54" t="n">
         <v>140</v>
@@ -1536,13 +1536,13 @@
         <v>45006</v>
       </c>
       <c r="B55" t="n">
-        <v>153.4951797497588</v>
+        <v>152.2924097060275</v>
       </c>
       <c r="C55" t="n">
-        <v>53.38511503076887</v>
+        <v>68.81183557454767</v>
       </c>
       <c r="D55" t="n">
-        <v>243.164178373809</v>
+        <v>242.5331491711536</v>
       </c>
       <c r="E55" t="n">
         <v>70</v>
@@ -1556,13 +1556,13 @@
         <v>45013</v>
       </c>
       <c r="B56" t="n">
-        <v>132.802444256374</v>
+        <v>131.9840795304267</v>
       </c>
       <c r="C56" t="n">
-        <v>42.32134082289685</v>
+        <v>40.28490267220794</v>
       </c>
       <c r="D56" t="n">
-        <v>221.3390229582801</v>
+        <v>228.7241786097558</v>
       </c>
       <c r="E56" t="n">
         <v>80</v>
@@ -1576,13 +1576,13 @@
         <v>45020</v>
       </c>
       <c r="B57" t="n">
-        <v>158.5963699604551</v>
+        <v>160.2323904770427</v>
       </c>
       <c r="C57" t="n">
-        <v>64.2940955891148</v>
+        <v>68.93785761983455</v>
       </c>
       <c r="D57" t="n">
-        <v>253.0267566092785</v>
+        <v>253.0342991968528</v>
       </c>
       <c r="E57" t="n">
         <v>80</v>
@@ -1596,13 +1596,13 @@
         <v>45027</v>
       </c>
       <c r="B58" t="n">
-        <v>194.0010474147874</v>
+        <v>191.8417055424486</v>
       </c>
       <c r="C58" t="n">
-        <v>104.0377402664207</v>
+        <v>101.9454322632256</v>
       </c>
       <c r="D58" t="n">
-        <v>288.4077087294027</v>
+        <v>285.996284330542</v>
       </c>
       <c r="E58" t="n">
         <v>240</v>
@@ -1616,13 +1616,13 @@
         <v>45034</v>
       </c>
       <c r="B59" t="n">
-        <v>213.944534043967</v>
+        <v>214.7629393011014</v>
       </c>
       <c r="C59" t="n">
-        <v>125.8329380613512</v>
+        <v>120.9685493679715</v>
       </c>
       <c r="D59" t="n">
-        <v>301.521382398084</v>
+        <v>304.1727429802208</v>
       </c>
       <c r="E59" t="n">
         <v>330</v>
@@ -1636,13 +1636,13 @@
         <v>45040</v>
       </c>
       <c r="B60" t="n">
-        <v>186.6596141441765</v>
+        <v>180.1858025617026</v>
       </c>
       <c r="C60" t="n">
-        <v>90.83889585838857</v>
+        <v>87.11789224650056</v>
       </c>
       <c r="D60" t="n">
-        <v>275.5382120303506</v>
+        <v>272.7025915942441</v>
       </c>
       <c r="E60" t="n">
         <v>240</v>
@@ -1656,13 +1656,13 @@
         <v>45048</v>
       </c>
       <c r="B61" t="n">
-        <v>154.3507341692276</v>
+        <v>154.6007671266797</v>
       </c>
       <c r="C61" t="n">
-        <v>63.68247599420251</v>
+        <v>65.91729506207436</v>
       </c>
       <c r="D61" t="n">
-        <v>247.0153913037175</v>
+        <v>247.2724654578536</v>
       </c>
       <c r="E61" t="n">
         <v>110</v>
@@ -1676,13 +1676,13 @@
         <v>45055</v>
       </c>
       <c r="B62" t="n">
-        <v>118.3132714290964</v>
+        <v>118.8319114751022</v>
       </c>
       <c r="C62" t="n">
-        <v>30.42082488214385</v>
+        <v>23.61988141907378</v>
       </c>
       <c r="D62" t="n">
-        <v>207.6930142152297</v>
+        <v>214.9638984267985</v>
       </c>
       <c r="E62" t="n">
         <v>230</v>
@@ -1696,13 +1696,13 @@
         <v>45062</v>
       </c>
       <c r="B63" t="n">
-        <v>138.8914204620461</v>
+        <v>140.1446219347288</v>
       </c>
       <c r="C63" t="n">
-        <v>47.68900364020294</v>
+        <v>48.33374860021442</v>
       </c>
       <c r="D63" t="n">
-        <v>227.4213180732592</v>
+        <v>234.6853026054756</v>
       </c>
       <c r="E63" t="n">
         <v>50</v>
@@ -1777,25 +1777,25 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>27915.25533525457</v>
+        <v>25044.77099151154</v>
       </c>
       <c r="C2" t="n">
-        <v>167.0785902958681</v>
+        <v>158.2553979853816</v>
       </c>
       <c r="D2" t="n">
-        <v>130.2300147451408</v>
+        <v>116.8360558081258</v>
       </c>
       <c r="E2" t="n">
-        <v>1.770304245980029</v>
+        <v>1.548388171459559</v>
       </c>
       <c r="F2" t="n">
-        <v>1.167233702333476</v>
+        <v>0.9542646866966481</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9096753417976881</v>
+        <v>0.8222063883591831</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>0.5555555555555555</v>
       </c>
     </row>
     <row r="3">
@@ -1803,25 +1803,25 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>19103.80938120886</v>
+        <v>17309.80714691491</v>
       </c>
       <c r="C3" t="n">
-        <v>138.2165307812668</v>
+        <v>131.5667402762374</v>
       </c>
       <c r="D3" t="n">
-        <v>97.51006011917947</v>
+        <v>89.54315839542306</v>
       </c>
       <c r="E3" t="n">
-        <v>1.242958850700905</v>
+        <v>1.097845298325201</v>
       </c>
       <c r="F3" t="n">
-        <v>1.085853523572706</v>
+        <v>0.5445250115461364</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6719955995577855</v>
+        <v>0.6180187746032035</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7037037037037037</v>
       </c>
     </row>
     <row r="4">
@@ -1829,25 +1829,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>6726.076338817181</v>
+        <v>6823.008051192194</v>
       </c>
       <c r="C4" t="n">
-        <v>82.01265962531139</v>
+        <v>82.60150150688663</v>
       </c>
       <c r="D4" t="n">
-        <v>63.91397969779086</v>
+        <v>64.2755871516127</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5866267010501544</v>
+        <v>0.5892560405248736</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4355438500252559</v>
+        <v>0.4355043118958595</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4760071409104339</v>
+        <v>0.4805185912587723</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8076923076923078</v>
+        <v>0.7843137254901956</v>
       </c>
     </row>
   </sheetData>
